--- a/Data/prescriptions_by_spp.xlsx
+++ b/Data/prescriptions_by_spp.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">adaption!$A$1:$S$28</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">default!$A$1:$S$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">default!$A$1:$S$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="66">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">Juniperus thurifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juniperus oxycedrus/phoenicea/communis/cedrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114/115/116/117</t>
   </si>
   <si>
     <t xml:space="preserve">Cupressus spp.</t>
@@ -311,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +327,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,10 +411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ28"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -523,7 +549,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>35</v>
@@ -811,7 +837,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>30</v>
@@ -851,8 +877,8 @@
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>61</v>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -867,7 +893,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>30</v>
@@ -888,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>5</v>
@@ -905,10 +931,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -917,31 +943,43 @@
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>200</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>3</v>
@@ -949,31 +987,37 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>0</v>
@@ -987,55 +1031,37 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>35</v>
-      </c>
       <c r="I12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>100</v>
-      </c>
       <c r="M12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>600</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>3</v>
@@ -1043,10 +1069,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1055,25 +1081,25 @@
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>0</v>
@@ -1082,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>5</v>
@@ -1091,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>3</v>
@@ -1099,10 +1125,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1111,25 +1137,25 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>0</v>
@@ -1138,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>5</v>
@@ -1147,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>3</v>
@@ -1155,10 +1181,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
@@ -1173,25 +1199,37 @@
         <v>25</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>200</v>
       </c>
       <c r="T15" s="2" t="n">
         <v>3</v>
@@ -1202,28 +1240,34 @@
         <v>48</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>0</v>
@@ -1237,55 +1281,37 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>300</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>3</v>
@@ -1293,10 +1319,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -1311,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>30</v>
@@ -1332,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>5</v>
@@ -1349,10 +1375,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1367,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>30</v>
@@ -1388,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>5</v>
@@ -1405,19 +1431,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
@@ -1426,16 +1452,34 @@
         <v>30</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="K20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>300</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>3</v>
@@ -1443,10 +1487,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1461,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>10</v>
@@ -1481,10 +1525,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1493,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -1502,7 +1546,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>10</v>
@@ -1519,13 +1563,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B23" s="1" t="n">
+        <v>175</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -1537,19 +1581,13 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>0</v>
@@ -1569,25 +1607,31 @@
         <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>0</v>
@@ -1603,23 +1647,23 @@
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>158</v>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>35</v>
@@ -1627,29 +1671,11 @@
       <c r="I25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>100</v>
-      </c>
       <c r="M25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>200</v>
       </c>
       <c r="T25" s="2" t="n">
         <v>3</v>
@@ -1657,10 +1683,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -1696,7 +1722,7 @@
         <v>10</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>5</v>
@@ -1713,10 +1739,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>30</v>
@@ -1731,10 +1757,10 @@
         <v>25</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>10</v>
@@ -1742,8 +1768,8 @@
       <c r="K27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>36</v>
+      <c r="L27" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
@@ -1752,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>5</v>
@@ -1769,44 +1795,100 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B28" s="1" t="n">
+        <v>186</v>
+      </c>
       <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="2" t="n">
+      <c r="F29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" s="2" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S28"/>
+  <autoFilter ref="A1:S29"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1823,847 +1905,848 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ28"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="20" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="5" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="5" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="5" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="20" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="992" style="7" width="11.59"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="ALD1" s="7"/>
+      <c r="ALE1" s="7"/>
+      <c r="ALF1" s="7"/>
+      <c r="ALG1" s="7"/>
+      <c r="ALH1" s="7"/>
+      <c r="ALI1" s="7"/>
+      <c r="ALJ1" s="7"/>
+      <c r="ALK1" s="7"/>
+      <c r="ALL1" s="7"/>
+      <c r="ALM1" s="7"/>
+      <c r="ALN1" s="7"/>
+      <c r="ALO1" s="7"/>
+      <c r="ALP1" s="7"/>
+      <c r="ALQ1" s="7"/>
+      <c r="ALR1" s="7"/>
+      <c r="ALS1" s="7"/>
+      <c r="ALT1" s="7"/>
+      <c r="ALU1" s="7"/>
+      <c r="ALV1" s="7"/>
+      <c r="ALW1" s="7"/>
+      <c r="ALX1" s="7"/>
+      <c r="ALY1" s="7"/>
+      <c r="ALZ1" s="7"/>
+      <c r="AMA1" s="7"/>
+      <c r="AMB1" s="7"/>
+      <c r="AMC1" s="7"/>
+      <c r="AMD1" s="7"/>
+      <c r="AME1" s="7"/>
+      <c r="AMF1" s="7"/>
+      <c r="AMG1" s="7"/>
+      <c r="AMH1" s="7"/>
+      <c r="AMI1" s="7"/>
+      <c r="AMJ1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD6" s="12"/>
+      <c r="ALE6" s="12"/>
+      <c r="ALF6" s="12"/>
+      <c r="ALG6" s="12"/>
+      <c r="ALH6" s="12"/>
+      <c r="ALI6" s="12"/>
+      <c r="ALJ6" s="12"/>
+      <c r="ALK6" s="12"/>
+      <c r="ALL6" s="12"/>
+      <c r="ALM6" s="12"/>
+      <c r="ALN6" s="12"/>
+      <c r="ALO6" s="12"/>
+      <c r="ALP6" s="12"/>
+      <c r="ALQ6" s="12"/>
+      <c r="ALR6" s="12"/>
+      <c r="ALS6" s="12"/>
+      <c r="ALT6" s="12"/>
+      <c r="ALU6" s="12"/>
+      <c r="ALV6" s="12"/>
+      <c r="ALW6" s="12"/>
+      <c r="ALX6" s="12"/>
+      <c r="ALY6" s="12"/>
+      <c r="ALZ6" s="12"/>
+      <c r="AMA6" s="12"/>
+      <c r="AMB6" s="12"/>
+      <c r="AMC6" s="12"/>
+      <c r="AMD6" s="12"/>
+      <c r="AME6" s="12"/>
+      <c r="AMF6" s="12"/>
+      <c r="AMG6" s="12"/>
+      <c r="AMH6" s="12"/>
+      <c r="AMI6" s="12"/>
+      <c r="AMJ6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>600</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD14" s="12"/>
+      <c r="ALE14" s="12"/>
+      <c r="ALF14" s="12"/>
+      <c r="ALG14" s="12"/>
+      <c r="ALH14" s="12"/>
+      <c r="ALI14" s="12"/>
+      <c r="ALJ14" s="12"/>
+      <c r="ALK14" s="12"/>
+      <c r="ALL14" s="12"/>
+      <c r="ALM14" s="12"/>
+      <c r="ALN14" s="12"/>
+      <c r="ALO14" s="12"/>
+      <c r="ALP14" s="12"/>
+      <c r="ALQ14" s="12"/>
+      <c r="ALR14" s="12"/>
+      <c r="ALS14" s="12"/>
+      <c r="ALT14" s="12"/>
+      <c r="ALU14" s="12"/>
+      <c r="ALV14" s="12"/>
+      <c r="ALW14" s="12"/>
+      <c r="ALX14" s="12"/>
+      <c r="ALY14" s="12"/>
+      <c r="ALZ14" s="12"/>
+      <c r="AMA14" s="12"/>
+      <c r="AMB14" s="12"/>
+      <c r="AMC14" s="12"/>
+      <c r="AMD14" s="12"/>
+      <c r="AME14" s="12"/>
+      <c r="AMF14" s="12"/>
+      <c r="AMG14" s="12"/>
+      <c r="AMH14" s="12"/>
+      <c r="AMI14" s="12"/>
+      <c r="AMJ14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B15" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD6" s="7"/>
-      <c r="ALE6" s="7"/>
-      <c r="ALF6" s="7"/>
-      <c r="ALG6" s="7"/>
-      <c r="ALH6" s="7"/>
-      <c r="ALI6" s="7"/>
-      <c r="ALJ6" s="7"/>
-      <c r="ALK6" s="7"/>
-      <c r="ALL6" s="7"/>
-      <c r="ALM6" s="7"/>
-      <c r="ALN6" s="7"/>
-      <c r="ALO6" s="7"/>
-      <c r="ALP6" s="7"/>
-      <c r="ALQ6" s="7"/>
-      <c r="ALR6" s="7"/>
-      <c r="ALS6" s="7"/>
-      <c r="ALT6" s="7"/>
-      <c r="ALU6" s="7"/>
-      <c r="ALV6" s="7"/>
-      <c r="ALW6" s="7"/>
-      <c r="ALX6" s="7"/>
-      <c r="ALY6" s="7"/>
-      <c r="ALZ6" s="7"/>
-      <c r="AMA6" s="7"/>
-      <c r="AMB6" s="7"/>
-      <c r="AMC6" s="7"/>
-      <c r="AMD6" s="7"/>
-      <c r="AME6" s="7"/>
-      <c r="AMF6" s="7"/>
-      <c r="AMG6" s="7"/>
-      <c r="AMH6" s="7"/>
-      <c r="AMI6" s="7"/>
-      <c r="AMJ6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>151</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD13" s="7"/>
-      <c r="ALE13" s="7"/>
-      <c r="ALF13" s="7"/>
-      <c r="ALG13" s="7"/>
-      <c r="ALH13" s="7"/>
-      <c r="ALI13" s="7"/>
-      <c r="ALJ13" s="7"/>
-      <c r="ALK13" s="7"/>
-      <c r="ALL13" s="7"/>
-      <c r="ALM13" s="7"/>
-      <c r="ALN13" s="7"/>
-      <c r="ALO13" s="7"/>
-      <c r="ALP13" s="7"/>
-      <c r="ALQ13" s="7"/>
-      <c r="ALR13" s="7"/>
-      <c r="ALS13" s="7"/>
-      <c r="ALT13" s="7"/>
-      <c r="ALU13" s="7"/>
-      <c r="ALV13" s="7"/>
-      <c r="ALW13" s="7"/>
-      <c r="ALX13" s="7"/>
-      <c r="ALY13" s="7"/>
-      <c r="ALZ13" s="7"/>
-      <c r="AMA13" s="7"/>
-      <c r="AMB13" s="7"/>
-      <c r="AMC13" s="7"/>
-      <c r="AMD13" s="7"/>
-      <c r="AME13" s="7"/>
-      <c r="AMF13" s="7"/>
-      <c r="AMG13" s="7"/>
-      <c r="AMH13" s="7"/>
-      <c r="AMI13" s="7"/>
-      <c r="AMJ13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>153</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>25</v>
@@ -2672,388 +2755,406 @@
         <v>35</v>
       </c>
       <c r="H15" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>153</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD15" s="7"/>
-      <c r="ALE15" s="7"/>
-      <c r="ALF15" s="7"/>
-      <c r="ALG15" s="7"/>
-      <c r="ALH15" s="7"/>
-      <c r="ALI15" s="7"/>
-      <c r="ALJ15" s="7"/>
-      <c r="ALK15" s="7"/>
-      <c r="ALL15" s="7"/>
-      <c r="ALM15" s="7"/>
-      <c r="ALN15" s="7"/>
-      <c r="ALO15" s="7"/>
-      <c r="ALP15" s="7"/>
-      <c r="ALQ15" s="7"/>
-      <c r="ALR15" s="7"/>
-      <c r="ALS15" s="7"/>
-      <c r="ALT15" s="7"/>
-      <c r="ALU15" s="7"/>
-      <c r="ALV15" s="7"/>
-      <c r="ALW15" s="7"/>
-      <c r="ALX15" s="7"/>
-      <c r="ALY15" s="7"/>
-      <c r="ALZ15" s="7"/>
-      <c r="AMA15" s="7"/>
-      <c r="AMB15" s="7"/>
-      <c r="AMC15" s="7"/>
-      <c r="AMD15" s="7"/>
-      <c r="AME15" s="7"/>
-      <c r="AMF15" s="7"/>
-      <c r="AMG15" s="7"/>
-      <c r="AMH15" s="7"/>
-      <c r="AMI15" s="7"/>
-      <c r="AMJ15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="n">
+      <c r="I16" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD16" s="12"/>
+      <c r="ALE16" s="12"/>
+      <c r="ALF16" s="12"/>
+      <c r="ALG16" s="12"/>
+      <c r="ALH16" s="12"/>
+      <c r="ALI16" s="12"/>
+      <c r="ALJ16" s="12"/>
+      <c r="ALK16" s="12"/>
+      <c r="ALL16" s="12"/>
+      <c r="ALM16" s="12"/>
+      <c r="ALN16" s="12"/>
+      <c r="ALO16" s="12"/>
+      <c r="ALP16" s="12"/>
+      <c r="ALQ16" s="12"/>
+      <c r="ALR16" s="12"/>
+      <c r="ALS16" s="12"/>
+      <c r="ALT16" s="12"/>
+      <c r="ALU16" s="12"/>
+      <c r="ALV16" s="12"/>
+      <c r="ALW16" s="12"/>
+      <c r="ALX16" s="12"/>
+      <c r="ALY16" s="12"/>
+      <c r="ALZ16" s="12"/>
+      <c r="AMA16" s="12"/>
+      <c r="AMB16" s="12"/>
+      <c r="AMC16" s="12"/>
+      <c r="AMD16" s="12"/>
+      <c r="AME16" s="12"/>
+      <c r="AMF16" s="12"/>
+      <c r="AMG16" s="12"/>
+      <c r="AMH16" s="12"/>
+      <c r="AMI16" s="12"/>
+      <c r="AMJ16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="n">
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H17" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="n">
+      <c r="I17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="1" t="n">
+      <c r="M18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1" t="n">
+      <c r="Q18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="T17" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="n">
+      <c r="T18" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="1" t="n">
+      <c r="M19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="5" t="n">
         <v>204</v>
       </c>
-      <c r="Q18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1" t="n">
+      <c r="Q19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="T18" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="n">
+      <c r="T19" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="1" t="n">
+      <c r="M20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="Q19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1" t="n">
+      <c r="Q20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="5" t="n">
         <v>300</v>
       </c>
-      <c r="T19" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1" t="n">
+      <c r="T20" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>168</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="F21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="n">
+      <c r="I21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>166</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="n">
+      <c r="F22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>175</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>22</v>
@@ -3062,312 +3163,350 @@
         <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H23" s="5" t="n">
+      <c r="F24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="I23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD23" s="7"/>
-      <c r="ALE23" s="7"/>
-      <c r="ALF23" s="7"/>
-      <c r="ALG23" s="7"/>
-      <c r="ALH23" s="7"/>
-      <c r="ALI23" s="7"/>
-      <c r="ALJ23" s="7"/>
-      <c r="ALK23" s="7"/>
-      <c r="ALL23" s="7"/>
-      <c r="ALM23" s="7"/>
-      <c r="ALN23" s="7"/>
-      <c r="ALO23" s="7"/>
-      <c r="ALP23" s="7"/>
-      <c r="ALQ23" s="7"/>
-      <c r="ALR23" s="7"/>
-      <c r="ALS23" s="7"/>
-      <c r="ALT23" s="7"/>
-      <c r="ALU23" s="7"/>
-      <c r="ALV23" s="7"/>
-      <c r="ALW23" s="7"/>
-      <c r="ALX23" s="7"/>
-      <c r="ALY23" s="7"/>
-      <c r="ALZ23" s="7"/>
-      <c r="AMA23" s="7"/>
-      <c r="AMB23" s="7"/>
-      <c r="AMC23" s="7"/>
-      <c r="AMD23" s="7"/>
-      <c r="AME23" s="7"/>
-      <c r="AMF23" s="7"/>
-      <c r="AMG23" s="7"/>
-      <c r="AMH23" s="7"/>
-      <c r="AMI23" s="7"/>
-      <c r="AMJ23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="I24" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD24" s="12"/>
+      <c r="ALE24" s="12"/>
+      <c r="ALF24" s="12"/>
+      <c r="ALG24" s="12"/>
+      <c r="ALH24" s="12"/>
+      <c r="ALI24" s="12"/>
+      <c r="ALJ24" s="12"/>
+      <c r="ALK24" s="12"/>
+      <c r="ALL24" s="12"/>
+      <c r="ALM24" s="12"/>
+      <c r="ALN24" s="12"/>
+      <c r="ALO24" s="12"/>
+      <c r="ALP24" s="12"/>
+      <c r="ALQ24" s="12"/>
+      <c r="ALR24" s="12"/>
+      <c r="ALS24" s="12"/>
+      <c r="ALT24" s="12"/>
+      <c r="ALU24" s="12"/>
+      <c r="ALV24" s="12"/>
+      <c r="ALW24" s="12"/>
+      <c r="ALX24" s="12"/>
+      <c r="ALY24" s="12"/>
+      <c r="ALZ24" s="12"/>
+      <c r="AMA24" s="12"/>
+      <c r="AMB24" s="12"/>
+      <c r="AMC24" s="12"/>
+      <c r="AMD24" s="12"/>
+      <c r="AME24" s="12"/>
+      <c r="AMF24" s="12"/>
+      <c r="AMG24" s="12"/>
+      <c r="AMH24" s="12"/>
+      <c r="AMI24" s="12"/>
+      <c r="AMJ24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="n">
+      <c r="F25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1" t="n">
+      <c r="I25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="n">
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H26" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L25" s="1" t="n">
+      <c r="I26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="M25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="1" t="n">
+      <c r="M26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="5" t="n">
         <v>158</v>
       </c>
-      <c r="Q25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" s="1" t="n">
+      <c r="Q26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="T25" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1" t="n">
+      <c r="T26" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1" t="n">
+      <c r="F27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H27" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L26" s="1" t="n">
+      <c r="I27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="M26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" s="1" t="n">
+      <c r="M27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="Q26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" s="1" t="n">
+      <c r="Q27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="T26" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="1" t="n">
+      <c r="T27" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="F28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="1" t="n">
+      <c r="M28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" s="1" t="n">
+      <c r="Q28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="T27" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="T28" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="2" t="n">
+      <c r="F29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" s="6" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Data/prescriptions_by_spp.xlsx
+++ b/Data/prescriptions_by_spp.xlsx
@@ -317,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,26 +327,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1908,1605 +1888,1604 @@
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="5" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="5" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="5" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="20" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="992" style="7" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="991" min="20" style="2" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="ALD1" s="7"/>
-      <c r="ALE1" s="7"/>
-      <c r="ALF1" s="7"/>
-      <c r="ALG1" s="7"/>
-      <c r="ALH1" s="7"/>
-      <c r="ALI1" s="7"/>
-      <c r="ALJ1" s="7"/>
-      <c r="ALK1" s="7"/>
-      <c r="ALL1" s="7"/>
-      <c r="ALM1" s="7"/>
-      <c r="ALN1" s="7"/>
-      <c r="ALO1" s="7"/>
-      <c r="ALP1" s="7"/>
-      <c r="ALQ1" s="7"/>
-      <c r="ALR1" s="7"/>
-      <c r="ALS1" s="7"/>
-      <c r="ALT1" s="7"/>
-      <c r="ALU1" s="7"/>
-      <c r="ALV1" s="7"/>
-      <c r="ALW1" s="7"/>
-      <c r="ALX1" s="7"/>
-      <c r="ALY1" s="7"/>
-      <c r="ALZ1" s="7"/>
-      <c r="AMA1" s="7"/>
-      <c r="AMB1" s="7"/>
-      <c r="AMC1" s="7"/>
-      <c r="AMD1" s="7"/>
-      <c r="AME1" s="7"/>
-      <c r="AMF1" s="7"/>
-      <c r="AMG1" s="7"/>
-      <c r="AMH1" s="7"/>
-      <c r="AMI1" s="7"/>
-      <c r="AMJ1" s="7"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T2" s="6" t="n">
+      <c r="I2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" s="6" t="n">
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="I4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5" t="n">
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="5" t="n">
+      <c r="Q4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5" t="n">
+      <c r="I5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="5" t="n">
+      <c r="Q5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T5" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="T5" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10" t="n">
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD6" s="12"/>
-      <c r="ALE6" s="12"/>
-      <c r="ALF6" s="12"/>
-      <c r="ALG6" s="12"/>
-      <c r="ALH6" s="12"/>
-      <c r="ALI6" s="12"/>
-      <c r="ALJ6" s="12"/>
-      <c r="ALK6" s="12"/>
-      <c r="ALL6" s="12"/>
-      <c r="ALM6" s="12"/>
-      <c r="ALN6" s="12"/>
-      <c r="ALO6" s="12"/>
-      <c r="ALP6" s="12"/>
-      <c r="ALQ6" s="12"/>
-      <c r="ALR6" s="12"/>
-      <c r="ALS6" s="12"/>
-      <c r="ALT6" s="12"/>
-      <c r="ALU6" s="12"/>
-      <c r="ALV6" s="12"/>
-      <c r="ALW6" s="12"/>
-      <c r="ALX6" s="12"/>
-      <c r="ALY6" s="12"/>
-      <c r="ALZ6" s="12"/>
-      <c r="AMA6" s="12"/>
-      <c r="AMB6" s="12"/>
-      <c r="AMC6" s="12"/>
-      <c r="AMD6" s="12"/>
-      <c r="AME6" s="12"/>
-      <c r="AMF6" s="12"/>
-      <c r="AMG6" s="12"/>
-      <c r="AMH6" s="12"/>
-      <c r="AMI6" s="12"/>
-      <c r="AMJ6" s="12"/>
+      <c r="I6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD6" s="7"/>
+      <c r="ALE6" s="7"/>
+      <c r="ALF6" s="7"/>
+      <c r="ALG6" s="7"/>
+      <c r="ALH6" s="7"/>
+      <c r="ALI6" s="7"/>
+      <c r="ALJ6" s="7"/>
+      <c r="ALK6" s="7"/>
+      <c r="ALL6" s="7"/>
+      <c r="ALM6" s="7"/>
+      <c r="ALN6" s="7"/>
+      <c r="ALO6" s="7"/>
+      <c r="ALP6" s="7"/>
+      <c r="ALQ6" s="7"/>
+      <c r="ALR6" s="7"/>
+      <c r="ALS6" s="7"/>
+      <c r="ALT6" s="7"/>
+      <c r="ALU6" s="7"/>
+      <c r="ALV6" s="7"/>
+      <c r="ALW6" s="7"/>
+      <c r="ALX6" s="7"/>
+      <c r="ALY6" s="7"/>
+      <c r="ALZ6" s="7"/>
+      <c r="AMA6" s="7"/>
+      <c r="AMB6" s="7"/>
+      <c r="AMC6" s="7"/>
+      <c r="AMD6" s="7"/>
+      <c r="AME6" s="7"/>
+      <c r="AMF6" s="7"/>
+      <c r="AMG6" s="7"/>
+      <c r="AMH6" s="7"/>
+      <c r="AMI6" s="7"/>
+      <c r="AMJ6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="5" t="n">
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" s="5" t="n">
+      <c r="Q7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="H8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="5" t="n">
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" s="5" t="n">
+      <c r="Q8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="H9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="5" t="n">
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="Q9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="5" t="n">
+      <c r="Q9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="H10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="5" t="n">
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="Q10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" s="5" t="n">
+      <c r="Q10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="T10" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="n">
+      <c r="I11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="6" t="n">
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5" t="n">
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="6" t="n">
+      <c r="I12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K13" s="5" t="n">
+      <c r="I13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="Q13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5" t="n">
+      <c r="Q13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="T13" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="T13" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="5" t="n">
         <v>151</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H14" s="10" t="n">
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="I14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD14" s="12"/>
-      <c r="ALE14" s="12"/>
-      <c r="ALF14" s="12"/>
-      <c r="ALG14" s="12"/>
-      <c r="ALH14" s="12"/>
-      <c r="ALI14" s="12"/>
-      <c r="ALJ14" s="12"/>
-      <c r="ALK14" s="12"/>
-      <c r="ALL14" s="12"/>
-      <c r="ALM14" s="12"/>
-      <c r="ALN14" s="12"/>
-      <c r="ALO14" s="12"/>
-      <c r="ALP14" s="12"/>
-      <c r="ALQ14" s="12"/>
-      <c r="ALR14" s="12"/>
-      <c r="ALS14" s="12"/>
-      <c r="ALT14" s="12"/>
-      <c r="ALU14" s="12"/>
-      <c r="ALV14" s="12"/>
-      <c r="ALW14" s="12"/>
-      <c r="ALX14" s="12"/>
-      <c r="ALY14" s="12"/>
-      <c r="ALZ14" s="12"/>
-      <c r="AMA14" s="12"/>
-      <c r="AMB14" s="12"/>
-      <c r="AMC14" s="12"/>
-      <c r="AMD14" s="12"/>
-      <c r="AME14" s="12"/>
-      <c r="AMF14" s="12"/>
-      <c r="AMG14" s="12"/>
-      <c r="AMH14" s="12"/>
-      <c r="AMI14" s="12"/>
-      <c r="AMJ14" s="12"/>
+      <c r="I14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD14" s="7"/>
+      <c r="ALE14" s="7"/>
+      <c r="ALF14" s="7"/>
+      <c r="ALG14" s="7"/>
+      <c r="ALH14" s="7"/>
+      <c r="ALI14" s="7"/>
+      <c r="ALJ14" s="7"/>
+      <c r="ALK14" s="7"/>
+      <c r="ALL14" s="7"/>
+      <c r="ALM14" s="7"/>
+      <c r="ALN14" s="7"/>
+      <c r="ALO14" s="7"/>
+      <c r="ALP14" s="7"/>
+      <c r="ALQ14" s="7"/>
+      <c r="ALR14" s="7"/>
+      <c r="ALS14" s="7"/>
+      <c r="ALT14" s="7"/>
+      <c r="ALU14" s="7"/>
+      <c r="ALV14" s="7"/>
+      <c r="ALW14" s="7"/>
+      <c r="ALX14" s="7"/>
+      <c r="ALY14" s="7"/>
+      <c r="ALZ14" s="7"/>
+      <c r="AMA14" s="7"/>
+      <c r="AMB14" s="7"/>
+      <c r="AMC14" s="7"/>
+      <c r="AMD14" s="7"/>
+      <c r="AME14" s="7"/>
+      <c r="AMF14" s="7"/>
+      <c r="AMG14" s="7"/>
+      <c r="AMH14" s="7"/>
+      <c r="AMI14" s="7"/>
+      <c r="AMJ14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="I15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="5" t="n">
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="Q15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" s="5" t="n">
+      <c r="Q15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T15" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="T15" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10" t="n">
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="I16" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD16" s="12"/>
-      <c r="ALE16" s="12"/>
-      <c r="ALF16" s="12"/>
-      <c r="ALG16" s="12"/>
-      <c r="ALH16" s="12"/>
-      <c r="ALI16" s="12"/>
-      <c r="ALJ16" s="12"/>
-      <c r="ALK16" s="12"/>
-      <c r="ALL16" s="12"/>
-      <c r="ALM16" s="12"/>
-      <c r="ALN16" s="12"/>
-      <c r="ALO16" s="12"/>
-      <c r="ALP16" s="12"/>
-      <c r="ALQ16" s="12"/>
-      <c r="ALR16" s="12"/>
-      <c r="ALS16" s="12"/>
-      <c r="ALT16" s="12"/>
-      <c r="ALU16" s="12"/>
-      <c r="ALV16" s="12"/>
-      <c r="ALW16" s="12"/>
-      <c r="ALX16" s="12"/>
-      <c r="ALY16" s="12"/>
-      <c r="ALZ16" s="12"/>
-      <c r="AMA16" s="12"/>
-      <c r="AMB16" s="12"/>
-      <c r="AMC16" s="12"/>
-      <c r="AMD16" s="12"/>
-      <c r="AME16" s="12"/>
-      <c r="AMF16" s="12"/>
-      <c r="AMG16" s="12"/>
-      <c r="AMH16" s="12"/>
-      <c r="AMI16" s="12"/>
-      <c r="AMJ16" s="12"/>
+      <c r="I16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD16" s="7"/>
+      <c r="ALE16" s="7"/>
+      <c r="ALF16" s="7"/>
+      <c r="ALG16" s="7"/>
+      <c r="ALH16" s="7"/>
+      <c r="ALI16" s="7"/>
+      <c r="ALJ16" s="7"/>
+      <c r="ALK16" s="7"/>
+      <c r="ALL16" s="7"/>
+      <c r="ALM16" s="7"/>
+      <c r="ALN16" s="7"/>
+      <c r="ALO16" s="7"/>
+      <c r="ALP16" s="7"/>
+      <c r="ALQ16" s="7"/>
+      <c r="ALR16" s="7"/>
+      <c r="ALS16" s="7"/>
+      <c r="ALT16" s="7"/>
+      <c r="ALU16" s="7"/>
+      <c r="ALV16" s="7"/>
+      <c r="ALW16" s="7"/>
+      <c r="ALX16" s="7"/>
+      <c r="ALY16" s="7"/>
+      <c r="ALZ16" s="7"/>
+      <c r="AMA16" s="7"/>
+      <c r="AMB16" s="7"/>
+      <c r="AMC16" s="7"/>
+      <c r="AMD16" s="7"/>
+      <c r="AME16" s="7"/>
+      <c r="AMF16" s="7"/>
+      <c r="AMG16" s="7"/>
+      <c r="AMH16" s="7"/>
+      <c r="AMI16" s="7"/>
+      <c r="AMJ16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T17" s="6" t="n">
+      <c r="I17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="5" t="n">
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="Q18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" s="5" t="n">
+      <c r="Q18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="5" t="n">
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="Q19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" s="5" t="n">
+      <c r="Q19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="5" t="n">
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="Q20" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" s="5" t="n">
+      <c r="Q20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5" t="n">
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" s="6" t="n">
+      <c r="I21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T22" s="6" t="n">
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H23" s="5" t="n">
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T23" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="I23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H24" s="10" t="n">
+      <c r="F24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="I24" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="ALD24" s="12"/>
-      <c r="ALE24" s="12"/>
-      <c r="ALF24" s="12"/>
-      <c r="ALG24" s="12"/>
-      <c r="ALH24" s="12"/>
-      <c r="ALI24" s="12"/>
-      <c r="ALJ24" s="12"/>
-      <c r="ALK24" s="12"/>
-      <c r="ALL24" s="12"/>
-      <c r="ALM24" s="12"/>
-      <c r="ALN24" s="12"/>
-      <c r="ALO24" s="12"/>
-      <c r="ALP24" s="12"/>
-      <c r="ALQ24" s="12"/>
-      <c r="ALR24" s="12"/>
-      <c r="ALS24" s="12"/>
-      <c r="ALT24" s="12"/>
-      <c r="ALU24" s="12"/>
-      <c r="ALV24" s="12"/>
-      <c r="ALW24" s="12"/>
-      <c r="ALX24" s="12"/>
-      <c r="ALY24" s="12"/>
-      <c r="ALZ24" s="12"/>
-      <c r="AMA24" s="12"/>
-      <c r="AMB24" s="12"/>
-      <c r="AMC24" s="12"/>
-      <c r="AMD24" s="12"/>
-      <c r="AME24" s="12"/>
-      <c r="AMF24" s="12"/>
-      <c r="AMG24" s="12"/>
-      <c r="AMH24" s="12"/>
-      <c r="AMI24" s="12"/>
-      <c r="AMJ24" s="12"/>
+      <c r="I24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ALD24" s="7"/>
+      <c r="ALE24" s="7"/>
+      <c r="ALF24" s="7"/>
+      <c r="ALG24" s="7"/>
+      <c r="ALH24" s="7"/>
+      <c r="ALI24" s="7"/>
+      <c r="ALJ24" s="7"/>
+      <c r="ALK24" s="7"/>
+      <c r="ALL24" s="7"/>
+      <c r="ALM24" s="7"/>
+      <c r="ALN24" s="7"/>
+      <c r="ALO24" s="7"/>
+      <c r="ALP24" s="7"/>
+      <c r="ALQ24" s="7"/>
+      <c r="ALR24" s="7"/>
+      <c r="ALS24" s="7"/>
+      <c r="ALT24" s="7"/>
+      <c r="ALU24" s="7"/>
+      <c r="ALV24" s="7"/>
+      <c r="ALW24" s="7"/>
+      <c r="ALX24" s="7"/>
+      <c r="ALY24" s="7"/>
+      <c r="ALZ24" s="7"/>
+      <c r="AMA24" s="7"/>
+      <c r="AMB24" s="7"/>
+      <c r="AMC24" s="7"/>
+      <c r="AMD24" s="7"/>
+      <c r="AME24" s="7"/>
+      <c r="AMF24" s="7"/>
+      <c r="AMG24" s="7"/>
+      <c r="AMH24" s="7"/>
+      <c r="AMI24" s="7"/>
+      <c r="AMJ24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H25" s="5" t="n">
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T25" s="6" t="n">
+      <c r="I25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="5" t="n">
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L26" s="5" t="n">
+      <c r="I26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" s="5" t="n">
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="Q26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" s="5" t="n">
+      <c r="Q26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="T26" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="5" t="n">
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="I27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L27" s="5" t="n">
+      <c r="I27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="5" t="n">
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="Q27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" s="5" t="n">
+      <c r="Q27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="T27" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="5" t="n">
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="Q28" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" s="5" t="n">
+      <c r="Q28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="T28" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" s="6" t="n">
+      <c r="F29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" s="2" t="n">
         <v>3</v>
       </c>
     </row>
